--- a/Data/Observed data.xlsx
+++ b/Data/Observed data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decadis-my.sharepoint.com/personal/s_sharma_decadis_onmicrosoft_com/Documents/Desktop/MSR/Reproduction/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sharma\MSR\repro\MSR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_AD4DB114E441178AC67DF4A65E95D84A693EDF1A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBBE8355-4877-45A2-B755-FEE6C87DAC69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFD8E16-B7EE-491A-BA2E-4E457B57E4AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="2010" windowWidth="25425" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference paper" sheetId="1" r:id="rId1"/>
-    <sheet name="Reproduction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t xml:space="preserve">Class Name </t>
   </si>
@@ -92,6 +91,12 @@
   </si>
   <si>
     <t>3(3)</t>
+  </si>
+  <si>
+    <t>DiffBlue</t>
+  </si>
+  <si>
+    <t>30*</t>
   </si>
 </sst>
 </file>
@@ -107,15 +112,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,11 +149,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -152,6 +200,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,138 +506,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,28 +669,28 @@
       <c r="E4" s="1">
         <v>87</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
         <v>37</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>52</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>45</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="11">
+        <v>90</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
@@ -612,13 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>1</v>
       </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -634,23 +732,23 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="11">
+        <v>89</v>
+      </c>
+      <c r="G5" s="1">
         <v>28</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>85</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>88</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>91</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
+      <c r="K5" s="11">
+        <v>100</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -673,8 +771,17 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,33 +797,33 @@
       <c r="E6" s="1">
         <v>99</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>94</v>
       </c>
       <c r="G6" s="1">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1">
         <v>79</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>96</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>92</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="11">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
@@ -724,13 +831,22 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U6" s="11">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,26 +862,26 @@
       <c r="E7" s="1">
         <v>82</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1">
         <v>59</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>58</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>68</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>66</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="11">
+        <v>90</v>
+      </c>
+      <c r="L7" s="1">
         <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -776,17 +892,26 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U7" s="12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -800,49 +925,58 @@
         <v>85</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
+        <v>85</v>
+      </c>
+      <c r="F8" s="11">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1">
         <v>49</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>35</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>69</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="11">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>2</v>
       </c>
+      <c r="U8" s="12">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -858,358 +992,64 @@
       <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="1">
-        <v>93</v>
+      <c r="F9" s="11">
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>93</v>
       </c>
       <c r="H9" s="1">
+        <v>93</v>
+      </c>
+      <c r="I9" s="1">
         <v>41</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>88</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="11">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="U9" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2810BA83-B306-46DF-9CD8-AEA952FDF646}">
-  <dimension ref="A1:R9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>94</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>59</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Observed data.xlsx
+++ b/Data/Observed data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sharma\MSR\repro\MSR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFD8E16-B7EE-491A-BA2E-4E457B57E4AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7C850-50F0-413A-AC4E-68A6FD32A185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2010" windowWidth="25425" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="2850" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference paper" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t xml:space="preserve">Class Name </t>
   </si>
@@ -51,16 +51,7 @@
     <t>JTExpert</t>
   </si>
   <si>
-    <t>Randoop ER</t>
-  </si>
-  <si>
-    <t>Randoop regression</t>
-  </si>
-  <si>
     <t>HTMLDecoder</t>
-  </si>
-  <si>
-    <t>Direct</t>
   </si>
   <si>
     <t>Regression</t>
@@ -190,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -201,29 +192,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -506,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,46 +516,40 @@
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="7"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -573,8 +563,8 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -588,74 +578,54 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="9" t="s">
-        <v>22</v>
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
@@ -669,8 +639,8 @@
       <c r="E4" s="1">
         <v>87</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>37</v>
@@ -684,41 +654,29 @@
       <c r="J4" s="1">
         <v>45</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>90</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11">
+      <c r="Q4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>71</v>
@@ -732,7 +690,7 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>89</v>
       </c>
       <c r="G5" s="1">
@@ -747,7 +705,7 @@
       <c r="J5" s="1">
         <v>91</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>100</v>
       </c>
       <c r="L5" s="1">
@@ -765,25 +723,13 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>97</v>
@@ -797,7 +743,7 @@
       <c r="E6" s="1">
         <v>99</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>94</v>
       </c>
       <c r="G6" s="1">
@@ -812,43 +758,31 @@
       <c r="J6" s="1">
         <v>92</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="7">
         <v>100</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="11">
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>74</v>
@@ -862,7 +796,7 @@
       <c r="E7" s="1">
         <v>82</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>94</v>
       </c>
       <c r="G7" s="1">
@@ -877,43 +811,31 @@
       <c r="J7" s="1">
         <v>66</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="7">
         <v>90</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>54</v>
@@ -927,7 +849,7 @@
       <c r="E8" s="1">
         <v>85</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>78</v>
       </c>
       <c r="G8" s="1">
@@ -942,43 +864,31 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <v>100</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="T8" s="1">
-        <v>2</v>
-      </c>
-      <c r="U8" s="12">
+      <c r="Q8" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>95</v>
@@ -992,7 +902,7 @@
       <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>100</v>
       </c>
       <c r="G9" s="1">
@@ -1007,7 +917,7 @@
       <c r="J9" s="1">
         <v>88</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="7">
         <v>100</v>
       </c>
       <c r="L9" s="1">
@@ -1016,8 +926,8 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
+      <c r="N9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1025,31 +935,15 @@
       <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="12">
+      <c r="Q9" s="8">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Observed data.xlsx
+++ b/Data/Observed data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sharma\MSR\repro\MSR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7C850-50F0-413A-AC4E-68A6FD32A185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB5F126-4D40-431F-980D-6D8917813FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2850" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t xml:space="preserve">Class Name </t>
   </si>
@@ -88,13 +88,25 @@
   </si>
   <si>
     <t>30*</t>
+  </si>
+  <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>D. Serra, G. Grano, F. Palomba, F. Ferrucci, H. C. Gall and A. Bacchelli, "On the Effectiveness of Manual and Automatic Unit Test Generation: Ten Years Later," 2019 IEEE/ACM 16th International Conference on Mining Software Repositories (MSR), Montreal, QC, Canada, 2019, pp. 121-125, doi: 10.1109/MSR.2019.00028</t>
+  </si>
+  <si>
+    <t>The values for base comaprision have bee taken from the reference paper as stated.</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +114,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -207,6 +232,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,8 +247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,16 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
@@ -526,26 +564,26 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="4"/>
     </row>
@@ -619,7 +657,7 @@
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -937,6 +975,22 @@
       </c>
       <c r="Q9" s="8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -946,5 +1000,6 @@
     <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>